--- a/console/Networking/podChExcel/podMixinsXlsx/components/detail/pod_container_detail.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/detail/pod_container_detail.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="8175"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>Unpassed'</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,9 +501,6 @@
     </r>
   </si>
   <si>
-    <t>Device Name</t>
-  </si>
-  <si>
     <t>pod_container_detail_i18nKey_35</t>
   </si>
   <si>
@@ -569,9 +561,6 @@
     </r>
   </si>
   <si>
-    <t>Environment Variable</t>
-  </si>
-  <si>
     <t>pod_container_detail_i18nKey_40</t>
   </si>
   <si>
@@ -586,9 +575,6 @@
     </r>
   </si>
   <si>
-    <t>Readiness Probe Configuration</t>
-  </si>
-  <si>
     <t>pod_container_detail_i18nKey_41</t>
   </si>
   <si>
@@ -603,9 +589,6 @@
     </r>
   </si>
   <si>
-    <t>Delay Detection Time</t>
-  </si>
-  <si>
     <t>pod_container_detail_i18nKey_42</t>
   </si>
   <si>
@@ -620,9 +603,6 @@
     </r>
   </si>
   <si>
-    <t>Detection Interval</t>
-  </si>
-  <si>
     <t>pod_container_detail_i18nKey_43</t>
   </si>
   <si>
@@ -637,9 +617,6 @@
     </r>
   </si>
   <si>
-    <t>Time-out Period</t>
-  </si>
-  <si>
     <t>pod_container_detail_i18nKey_44</t>
   </si>
   <si>
@@ -654,9 +631,6 @@
     </r>
   </si>
   <si>
-    <t>Success Threshold</t>
-  </si>
-  <si>
     <t>pod_container_detail_i18nKey_45</t>
   </si>
   <si>
@@ -671,9 +645,6 @@
     </r>
   </si>
   <si>
-    <t>Failure Threshold</t>
-  </si>
-  <si>
     <t>pod_container_detail_i18nKey_46</t>
   </si>
   <si>
@@ -686,9 +657,6 @@
       </rPr>
       <t>探针类型</t>
     </r>
-  </si>
-  <si>
-    <t>Probe Type</t>
   </si>
   <si>
     <t>pod_container_detail_i18nKey_47</t>
@@ -981,6 +949,38 @@
   </si>
   <si>
     <t>Copied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment Variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Readiness Probe Configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probe Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialDelaySeconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeriodSeconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuccessThreshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FailureThreshold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +988,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1015,6 +1015,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1036,12 +1042,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1383,15 +1392,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="33.125" style="1"/>
+    <col min="1" max="3" width="33.125" style="1"/>
+    <col min="4" max="4" width="33.125" style="3"/>
+    <col min="5" max="16384" width="33.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1476,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1487,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
@@ -1531,7 +1542,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>34</v>
@@ -1542,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
@@ -1630,7 +1641,7 @@
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>59</v>
@@ -1641,7 +1652,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>61</v>
@@ -1729,7 +1740,7 @@
         <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>84</v>
@@ -1740,7 +1751,7 @@
         <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>86</v>
@@ -1765,150 +1776,150 @@
         <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
